--- a/Shading Nets/my_graphs/Energy Change by Activities.xlsx
+++ b/Shading Nets/my_graphs/Energy Change by Activities.xlsx
@@ -468,7 +468,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>-4.29469896008959</v>
+        <v>-0.007992575818207115</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.007453537000117194</v>
+        <v>-1.38712771331484E-05</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -500,7 +500,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>-4.698790943757913E-05</v>
+        <v>-8.744604268473566E-08</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>-0.004876174796157429</v>
+        <v>-9.074721445401224E-06</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-7.847260743002607</v>
+        <v>-0.01460400997120814</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>-0.2395069656052868</v>
+        <v>-0.0004457303291331982</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.008804313506516337</v>
+        <v>-1.638511548662791E-05</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-0.1245696652404149</v>
+        <v>-0.0002318282204214483</v>
       </c>
       <c r="E5">
-        <v>-0.02872452849442197</v>
+        <v>-5.345728641259484E-05</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>-0.0627386109699728</v>
+        <v>-0.0001167586087831296</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>-9.671559875101821E-05</v>
+        <v>-1.799908915245396E-07</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -596,7 +596,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>-7.102654011167033</v>
+        <v>-0.01321827239007689</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>-0.01232679984402552</v>
+        <v>-2.294057937746175E-05</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -628,7 +628,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.1517423556142603</v>
+        <v>-0.0002823975009960122</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>-0.004631342367702018</v>
+        <v>-8.619080290372949E-06</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -660,10 +660,10 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-9.853537263637691E-05</v>
+        <v>-1.833775584714203E-07</v>
       </c>
       <c r="C8">
-        <v>-0.06202457983999921</v>
+        <v>-0.000115429776997189</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>-0.1091071567207109</v>
+        <v>-0.0002030519972322509</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0.0002106974294662223</v>
+        <v>3.921148277186148E-07</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>-0.02091931925042445</v>
+        <v>-3.89315400752821E-05</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -724,16 +724,16 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.003545817625877135</v>
+        <v>-6.598883032893355E-06</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>-0.02040561935427831</v>
+        <v>-3.7975529266987E-05</v>
       </c>
       <c r="E10">
-        <v>-0.00470533370753401</v>
+        <v>-8.756780516705476E-06</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -742,13 +742,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>-0.2285242206726252</v>
+        <v>-0.0004252910794093623</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>-1.584287040046206E-05</v>
+        <v>-2.948410227077147E-08</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -756,7 +756,7 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.0006501845553543717</v>
+        <v>-1.210014829666761E-06</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>-0.8376862372533651</v>
+        <v>-0.00155896162323188</v>
       </c>
       <c r="I11">
         <v>0</v>
